--- a/script/税务云-正式环境fapiao/3.应用设置/用户管理-正.xlsx
+++ b/script/税务云-正式环境fapiao/3.应用设置/用户管理-正.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>wait</t>
   </si>
@@ -108,27 +108,18 @@
     <t>//*[@id="user-mail"]</t>
   </si>
   <si>
-    <t>1203453332@qq.com</t>
-  </si>
-  <si>
     <t>邮箱</t>
   </si>
   <si>
     <t>//*[@id="addUserModal"]/div/div/div[2]/div[3]/div[2]/div[2]/input</t>
   </si>
   <si>
-    <t>1145221555</t>
-  </si>
-  <si>
     <t>账号</t>
   </si>
   <si>
     <t>//*[@id="userName"]</t>
   </si>
   <si>
-    <t>hhuu112222</t>
-  </si>
-  <si>
     <t>用户名</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
   </si>
   <si>
     <t>//*[@id="table"]/table/tbody/tr/td[5]</t>
-  </si>
-  <si>
-    <t>120110222332@qq.com</t>
   </si>
   <si>
     <r>
@@ -234,6 +222,9 @@
   </si>
   <si>
     <t>该状态为停用状态，不能停用！</t>
+  </si>
+  <si>
+    <t>hhuu112222</t>
   </si>
   <si>
     <t>//*[@id='table']/table/tbody/tr[1]/td[7]/*[name()='svg'][1]</t>
@@ -368,12 +359,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,17 +380,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,8 +410,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,29 +420,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,7 +443,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,14 +472,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,14 +480,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -519,7 +496,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,31 +556,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,31 +706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,103 +718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,26 +758,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,8 +795,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,6 +815,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -845,10 +843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,16 +855,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,119 +874,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,13 +1029,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1390,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1646,11 +1644,12 @@
       <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="15" t="str">
+        <f ca="1">CONCATENATE(IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))))&amp;IF(INT(RAND()*3)=0,"@sina.com.cn",IF(INT(RAND()*3)=1,"@qq.com",IF(INT(RAND()*3)=0,"@163.com",IF(INT(RAND()*3)=1,"@126.com",IF(INT(RAND()*3)=0,"@gmail.com",IF(INT(RAND()*2)=0,"@yahoo.com.cn","@yahoo.com"))))))</f>
+        <v>D1l3Hm@qq.com</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1661,13 +1660,14 @@
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="16">
+        <f ca="1">RANDBETWEEN(10000000,99999999)</f>
+        <v>19766092</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1678,13 +1678,14 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f ca="1">CONCATENATE(IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))))</f>
+        <v>hJ75A5</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1695,10 +1696,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1709,13 +1710,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1740,10 +1741,13 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -1756,6 +1760,9 @@
       </c>
       <c r="C27" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>26</v>
@@ -1771,11 +1778,12 @@
       <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
-        <v>36</v>
+      <c r="D28" t="str">
+        <f ca="1">D22</f>
+        <v>hJ75A5</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:6">
@@ -1800,10 +1808,11 @@
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="D30" s="16">
+        <f ca="1">D21</f>
+        <v>19766092</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1814,10 +1823,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D31" s="16" t="str">
+        <f ca="1">D22</f>
+        <v>hJ75A5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1828,10 +1838,11 @@
         <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D32" s="18" t="str">
+        <f ca="1">D20</f>
+        <v>D1l3Hm@qq.com</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1839,13 +1850,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1859,20 +1870,20 @@
         <v>9</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:6">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E35"/>
@@ -1888,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1902,10 +1913,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1916,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F38" s="5"/>
     </row>
@@ -1928,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -1940,23 +1951,23 @@
         <v>2</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:6">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E41"/>
       <c r="F41" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1967,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1981,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F43" s="5"/>
     </row>
@@ -1993,27 +2004,27 @@
         <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F44" s="5"/>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:6">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E45"/>
       <c r="F45" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="11"/>
@@ -2031,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>26</v>
@@ -2045,10 +2056,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" spans="1:4">
@@ -2067,10 +2078,10 @@
         <v>2</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2090,14 +2101,14 @@
         <v>2</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:6">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="11"/>
@@ -2115,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>28</v>
@@ -2129,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -2144,20 +2155,20 @@
         <v>9</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:6">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E57"/>
@@ -2173,10 +2184,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2187,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2201,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F60" s="5"/>
     </row>
@@ -2213,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F61" s="5"/>
     </row>
@@ -2225,23 +2236,23 @@
         <v>2</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F62" s="5"/>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:6">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E63"/>
       <c r="F63" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:6">
@@ -2252,10 +2263,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="12"/>
@@ -2268,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F65" s="5"/>
     </row>
@@ -2280,27 +2291,27 @@
         <v>2</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:6">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:6">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="11"/>
@@ -2318,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>26</v>
@@ -2332,10 +2343,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2354,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>28</v>
@@ -2371,20 +2382,20 @@
         <v>9</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:6">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E74"/>
@@ -2400,10 +2411,10 @@
         <v>2</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2414,10 +2425,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2428,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>28</v>
@@ -2445,20 +2456,20 @@
         <v>9</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:6">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E79"/>
@@ -2474,12 +2485,12 @@
         <v>2</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F80" s="12"/>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:6">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -2488,21 +2499,21 @@
       <c r="C81" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>72</v>
+      <c r="D81" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:6">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="12" t="s">
@@ -2510,21 +2521,21 @@
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:6">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:6">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="11"/>
@@ -2535,21 +2546,21 @@
       <c r="F84" s="12"/>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:6">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:6">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -2558,21 +2569,21 @@
       <c r="C86" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="19" t="s">
-        <v>72</v>
+      <c r="D86" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:6">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="12" t="s">
@@ -2580,21 +2591,21 @@
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:6">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:6">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="11"/>
@@ -2605,14 +2616,14 @@
       <c r="F89" s="12"/>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:6">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>28</v>
@@ -2632,17 +2643,17 @@
         <v>16</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="12" t="s">
@@ -2657,10 +2668,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2671,10 +2682,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2685,10 +2696,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2699,10 +2710,10 @@
         <v>2</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2713,10 +2724,10 @@
         <v>2</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2727,10 +2738,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2741,10 +2752,10 @@
         <v>2</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2755,10 +2766,10 @@
         <v>2</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2769,10 +2780,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2793,10 +2804,10 @@
         <v>2</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2807,10 +2818,10 @@
         <v>2</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2821,10 +2832,10 @@
         <v>2</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2835,10 +2846,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2849,16 +2860,16 @@
         <v>2</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D32" r:id="rId1" display="120110222332@qq.com" tooltip="mailto:120110222332@qq.com"/>
-    <hyperlink ref="D20" r:id="rId2" display="1203453332@qq.com" tooltip="mailto:1201112332@qq.com"/>
+    <hyperlink ref="D32" r:id="rId1" display="=D20" tooltip="mailto:120110222332@qq.com"/>
+    <hyperlink ref="D20" r:id="rId2" display="=CONCATENATE(IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*9+48)),IF(INT(RAND()*2)=0,CHAR(INT(RAND()*25+65)),CHAR(INT(RAND()*25+97)))))&amp;IF(INT(RAND()*3)=0,&quot;@sina.com.cn&quot;,IF(INT(RAND()*3)=1,&quot;@qq.com&quot;,IF(INT(RAND()*3)=0,&quot;@163.com&quot;,IF(INT(RAND()*3)=1,&quot;@126.com&quot;,IF(INT(RAND()*3)=0,&quot;@gmail.com&quot;,IF(INT(RAND()*2)=0,&quot;@yahoo.com.cn&quot;,&quot;@yahoo.com&quot;))))))" tooltip="mailto:1201112332@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
